--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/1.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/1.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-3.388156286528934</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9.661247712162394</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5.547509972177048</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-13.36299904188393</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-7.103595542642271</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-12.59945744403128</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-3.891122143887275</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.485349605600831</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5.179816269472115</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-13.81158062013574</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-7.045342087954661</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-12.46201352487736</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-4.494749050184425</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>9.274248139499448</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.738534204334652</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-14.30307401808424</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-6.97130621196674</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-12.37111918655113</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-5.159491100878244</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9.04177337732968</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.25257385059012</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-14.89666186253566</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-6.830783590163319</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-12.3653091791297</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-5.850764714704566</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.800019950115653</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3.747217570573421</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-15.40628274193686</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.724740225771409</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-12.32055060343876</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-6.545753096541233</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>8.556967387682453</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.239145605616223</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-16.0388471621723</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.614698399869494</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-12.21175614538169</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-7.238396813458413</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.314734805599461</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>2.732787710338378</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-16.63918243289515</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.497298280357968</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-12.13780186857991</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-7.93180981900134</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8.072233186541716</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.225867425826532</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-17.20100756065677</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-6.361642782759171</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-12.01823158479251</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-8.636743460377314</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>7.825702550405034</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1.710524968745721</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-17.87342255215971</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-6.245657704483089</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-11.84507681090647</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-9.36647005418307</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>7.570501279224904</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.177057598519168</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-18.46648509362625</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-6.14891029788833</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-11.59931515225314</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-10.13167926532271</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>7.302890964540986</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.6176506247225402</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-19.1643546375263</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-5.983506864300398</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-11.24330239550545</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-10.93479666023143</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7.022023332982344</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.03053083454096418</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-19.82713756481493</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-5.845397414385627</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-10.83498632978282</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-11.77756201899705</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>6.727289945588741</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-0.5855736400321638</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-20.61315385527429</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.677092235634131</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-10.37590304821547</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-12.65432180658115</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6.420667966603222</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-1.226529776444237</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-21.41010641046217</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.491865159176164</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-9.948743357283309</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-13.55407566237832</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6.106004461534662</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-1.884295749861788</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-22.22844241991427</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-5.294803840265076</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-9.561479050644905</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-14.46114121652705</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.788783896425198</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-2.547406947812209</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-23.09205411249506</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-5.071001646971793</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-9.156599331192039</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-15.35666910743305</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5.475598303250412</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-3.202083525288458</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-23.90369703736383</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-4.809723428748509</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-8.878834628810569</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-16.22155213622029</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.173129885294718</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-3.83435714507587</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-24.68327836625829</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.55324225574309</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-8.677914309486662</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-17.03722125028424</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>4.887872644379498</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-4.430652882340101</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-25.46243401859603</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-4.315995191080684</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-8.557466731131358</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-17.79938549080222</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>4.621327222190865</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-4.987833827259968</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-26.16226892021541</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-4.093886771263962</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-8.441339414704803</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-18.50736352333744</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>4.373731896209516</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-5.505401889600952</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-26.71640922758602</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-3.901864804575803</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-8.474338932640258</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-19.16614703172668</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.143340965961753</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-5.987006244920057</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-27.22141106349939</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-3.728372988951242</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-8.510278215014585</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-19.78422956477265</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>3.927184052582831</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-6.438856110727156</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-27.68090626410969</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.596850963791742</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-8.599275610746814</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-20.37009572087587</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.722293907358444</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-6.867154161331458</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-27.89104104348762</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-3.505152015728926</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-8.711185292156337</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-20.92700258667647</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>3.527531456205286</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-7.274281493241246</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-28.05490840392918</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-3.434424501398357</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-8.811666970364296</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-21.45616286521368</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>3.342472590477998</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-7.661124654249496</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-28.16215172537883</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-3.398622453620975</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-8.907894597554291</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-21.96225467351247</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>3.165481270841264</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-8.031103586575782</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-28.1396995512488</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-3.424535841662353</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-8.928049198797375</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-22.4446640703569</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2.996772205899731</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-8.383769467868412</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-28.05589108278884</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-3.381668881796196</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-8.97044735551882</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-22.900801559098</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2.837250998987778</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-8.717229243962626</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-27.90215391870244</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-3.401556268829327</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-8.949306211705034</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-23.32550446649099</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>2.688723149296395</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-9.027708737320401</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-27.62610267166886</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-3.438506503395403</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-8.83249692289739</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-23.71014142969191</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>2.554207232259841</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-9.308897981336559</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-27.43409537374364</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-3.437197570456292</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-8.795647240499763</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-24.03859396302429</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>2.439340233112118</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-9.549013540627405</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-27.14002080015953</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-3.431639554546057</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-8.702008459921476</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-24.30206107801288</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>2.347200049062384</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-9.741621443597086</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-26.78932671605753</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-3.439529577416776</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-8.55046161677026</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-24.49470427315982</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>2.279828531150036</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-9.882453447774305</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-26.49127161382068</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-3.432320548089696</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-8.383335346311233</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-24.61211407469532</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>2.23876776831748</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-9.968286002864984</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-26.10410520006089</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-3.425349074649932</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-8.276712606127925</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-24.65168100669349</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>2.224930351087051</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-9.997211448833607</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-25.67592892568765</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-3.423244329488313</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-8.102213750752941</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-24.61187845610572</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>2.238850169266122</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-9.968113753654888</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-25.35717869723575</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-3.425980181457234</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-7.954013869141927</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-24.49335405555329</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>2.280300731632354</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-9.881466369816751</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-24.91534907372937</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-3.417467762161747</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-7.830785432533635</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-24.29507866698214</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>2.349641950160783</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-9.736516944895758</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-24.53579502477648</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.431394080129164</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-7.699949362276099</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-24.03321841819118</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>2.44122017813035</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-9.545083743097758</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-24.06664511758183</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.456008829319881</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-7.601513601211409</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-23.72013992702721</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>2.550710540140467</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-9.316207393005193</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-23.63749069282293</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.500181554713319</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-7.505679928940587</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-23.36620975588986</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>2.67448762370842</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-9.05746638062716</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-23.15618636139169</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.500431780247958</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-7.41023027995232</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-22.97978803561472</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>2.809627709136194</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-8.774972388132662</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-22.7946963952554</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.553165227967303</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-7.401050137171922</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-22.56890254447962</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>2.953323307648342</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-8.474594131014582</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-22.35250902230242</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.600234551480079</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-7.321971135875351</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-22.13823252636395</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>3.103937985824021</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-8.159752375280593</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-21.90880913903088</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.658966285354151</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-7.235214979473209</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-21.6877110403428</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>3.261495154361535</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-7.830398183699304</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-21.46646779796163</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-3.721995405229768</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-7.203102687742279</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-21.22309332324578</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>3.423982081688088</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-7.490738928021432</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-20.93912247129441</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-3.813056119808663</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-7.135256367460455</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-20.74286139032725</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>3.591929640105734</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-7.139664883951359</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-20.54803892751799</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-3.876259447334978</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-7.16916959596475</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-20.24544185001218</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>3.76588807889059</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-6.776025821974386</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-20.09199442410154</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-3.958871090855003</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-7.125904076312014</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-19.72976320412679</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>3.946232124273469</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-6.399038422258356</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-19.74348759294524</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.015638237540973</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-7.110801367561859</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-19.19613192778739</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>4.132854595236261</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-6.008926733749443</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-19.23746685038014</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.069620437374642</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-7.142347556005574</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-18.642980027137</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>4.326303853355613</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-5.604544472940222</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-18.89186729953676</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.121580244754295</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-7.172543041869266</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-18.0727853433428</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>4.52571334364913</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-5.187703068141677</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-18.52929049963863</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.200138392983753</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-7.199308802554274</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-17.49034378883722</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>4.729405831163876</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-4.761908576026088</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-18.14799298819278</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.25769105780378</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-7.232771796865228</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-16.89770101215141</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>4.936665908088247</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-4.328656470037341</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-17.81787628998163</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.299954625716155</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-7.310804665771388</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-16.29739678082692</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.14660536243901</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-3.889803449825507</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-17.51963552031047</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.353667595544199</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-7.350878819524266</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-15.69407110161916</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.35760148287151</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-3.448741597058788</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-17.14019468320777</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.383539456521218</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-7.427703339308594</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-15.09426457816292</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>5.567366877948933</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-3.010252426691366</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-16.89846021220432</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.39816181323847</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-7.502329656854845</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-14.50040361320622</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>5.775052981823542</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-2.576109762925462</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-16.60368372514902</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.459790145231882</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-7.616622931052643</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-13.9233308083848</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>5.976867900731531</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-2.154240100738952</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-16.38259003867253</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.46096446316818</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-7.662205832582868</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-13.37169394161147</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>6.169787318531797</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-1.750965406989861</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-16.15329528576815</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.492054193994171</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-7.790376913681292</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-12.85176948224419</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6.351616217292597</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-1.370874101000056</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-15.90182459564821</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.480048119449225</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-7.909679043280007</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-12.36856361195541</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.520603826331585</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-1.01762595698407</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-15.73646283878412</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.526453078330474</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-7.969368179353067</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-11.92536186214767</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.675601123812975</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-0.6936228660227512</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-15.59634732451279</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.558024255754759</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-8.028150225948366</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-11.52341205928887</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.816171717664012</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-0.3997770529273827</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-15.49259545652305</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.584648727752169</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-8.085925866699727</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-11.16058889784344</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.94305887348434</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-0.1345348109198223</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-15.41334263291481</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.625981076586266</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-8.170679143050608</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-10.84255617279588</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>7.054281838904486</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.09796333690329026</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-15.28475208499301</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.639239862510325</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-8.258385426022519</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-10.5726584617812</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>7.148670942336128</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.295272333652681</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-15.24215725847686</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.711040337598603</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-8.230315310395039</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-10.35522340812578</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>7.224712712723838</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.4542284512633554</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-15.19877900595739</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.726223326209921</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-8.264797952732089</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-10.1947876571451</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>7.280820586467999</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.5715151705531448</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-15.2096518720498</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.790785473411684</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-8.313261028881479</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-10.0961554935427</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>7.315314400650245</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.6436203142924096</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-15.35436831591292</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-4.839738615110875</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-8.233106100284646</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-10.06288061507702</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>7.326951349823933</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.6679459481124901</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-15.42924663362975</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-4.919208977947626</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-8.227140497222878</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-10.09763951441354</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>7.314795406254381</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.6425354193220832</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-15.56653185164629</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-4.976635738147376</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-8.222661329108245</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-10.20806723185969</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>7.27617643018171</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.561807123921907</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-15.7246435216241</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.030786602661039</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-8.136050836709831</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-10.39820688027813</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>7.209680457045989</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.4228053401324763</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-15.91320917930349</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.153496096254076</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-8.052787305851622</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-10.6712856426419</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>7.114178870727098</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.2231708325518203</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-16.21509084207682</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.193688176829056</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-8.029964404903886</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-11.02994838491435</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>6.988746704036396</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-0.03902993077853675</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-16.58912015274035</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.265815687188873</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-7.91565788852393</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-11.47632423417411</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>6.832639354897462</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-0.3653534503796784</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-16.94056596352764</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.334364022179796</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-7.867939685120876</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-12.01002023821232</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>6.645994247249703</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-0.7555124581387812</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-17.40445831239938</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.385160597564559</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-7.837353554883549</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-12.63432463137575</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>6.427661413978921</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-1.211910821126815</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-17.89944769228179</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.453707348849567</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-7.725321383289073</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-13.35685411296543</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>6.174977129574333</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-1.740116735131641</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-18.59470430667943</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.555543598477112</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-7.688024777243644</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-14.18396058934835</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>5.885719994140366</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-2.344773767777482</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-19.28504752677873</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-5.583955282600095</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-7.600497263730853</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-15.12335124269959</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>5.557194638335963</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-3.031516262449516</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-20.05514623110113</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-5.619043079009614</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-7.575237801266214</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-16.18390072726745</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>5.186297402427915</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-3.806832044182067</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-21.01682655679203</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-5.70326931071043</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-7.503643943433935</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-17.37537319845709</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>4.769613548769886</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-4.677859208736886</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-21.95672945098004</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-5.739407895994843</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-7.533985093301355</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-18.70240641455531</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>4.305521152355639</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-5.647988194036876</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-23.19382250886944</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-5.746664436499386</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-7.459372017937262</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-20.17975376260551</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3.788860632652329</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-6.728004478718566</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-24.46729279846245</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-5.799561005928021</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-7.571198935708303</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-21.8185455803629</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>3.215739468313062</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-7.926044907543252</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-25.75734183139754</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-5.834993258374149</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-7.560145024152677</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-23.62589069193209</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>2.583671548836325</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-9.247306393618782</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-27.33254434412163</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-5.853009496868188</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-7.694126112672521</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-25.60472510286123</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.891630089184484</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-10.69393530679387</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-28.89602716611387</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-5.84039607110467</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-7.807724172307072</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-27.75304164827123</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1.140317038598477</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-12.2644643071377</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-30.78284303225377</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-5.866338757705483</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-7.957784580511157</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-30.06263006097855</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.3326037061956553</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-13.95289127045687</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-32.6103426816042</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-5.868086377183171</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-8.19161172249542</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-32.51055794648377</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-0.5234899505808339</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-15.74245144637712</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-34.62398751927692</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-5.830758428756263</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-8.457680267486646</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-35.08036052456761</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.422205839758831</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-17.62110824053628</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-36.74673914545345</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-5.815942068064369</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-8.735531044052136</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-37.75577517770565</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.357856570060324</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-19.5769728498163</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-38.92586348031447</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-5.780227124112336</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-9.066860373259015</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-40.47677592249124</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.309449748718968</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-21.56616321786207</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-41.21089070831886</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-5.728265733026769</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-9.488133914222352</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-43.24117922180104</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-4.276221745281556</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-23.58708306763386</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-43.51750517191782</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-5.676929113924841</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-9.814461009119391</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-45.94262470916546</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-5.220976024831272</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-25.56197754480882</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-45.97084898607631</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-5.591572908053359</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-10.22149920426386</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-48.63365697357075</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-6.162088573685126</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-27.5292594247251</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-48.37869069340572</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-5.491104188483796</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-10.64628854458991</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-51.11585519140549</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-7.030167311515942</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-29.34387296202729</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-50.69067819141478</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-5.394955818651551</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-11.0491223468995</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-53.6351708969624</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-7.911226842605648</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-31.18562127656335</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-53.15521865755723</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-5.231675738769744</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-11.43062299375404</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-37.81237848257521</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-2.377651977653149</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-19.61835275353807</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-38.21520748478127</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-2.51853004665028</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-19.91284130621243</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-38.6539314136738</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-2.671961352705051</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-20.23357088162936</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-39.02118048251494</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-2.800396344664414</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-20.50204868774996</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-39.30089572447613</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-2.898218852330834</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-20.70653480050501</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-39.4580472737841</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-2.953178169274676</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-20.82142060081431</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-39.48362679472772</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-2.962123884445813</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-20.84012053567385</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-39.37071897427543</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-2.92263756237644</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-20.75757915844302</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-39.12979392102888</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-2.838380827909631</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-20.58145065268743</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-38.77276590962462</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-2.713520362180826</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-20.32044496102457</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-38.31802468715281</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-2.554487459970736</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-19.98800592680977</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-37.78350011708412</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-2.367552584749711</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-19.59724119500951</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-37.18728909871902</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-2.159044616053047</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-19.16138052230393</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-36.53927342946996</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-1.932419433497312</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-18.68764800676412</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-35.84729937509817</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-1.690421046980574</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-18.18177966897269</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-35.12692282161919</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-1.438489688391315</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-17.65514765525771</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-34.40671423024911</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-1.186617069806965</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-17.12863843041366</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-33.72637097568722</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-0.9486862271094062</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-16.63127280067875</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-33.12922144428707</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-0.739850039979158</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-16.19472602706226</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-32.65763276714674</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-0.5749252162137192</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-15.84997064393908</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-32.34014162970355</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-0.4638916557656067</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-15.6178684242862</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-32.18517750595188</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-0.4096973291446002</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-15.50458174365952</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-32.17795242181246</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-0.4071705599787053</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-15.49929983853472</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-32.28494385558096</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-0.4445877928641147</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-15.57751603524969</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-32.46056956911816</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-0.5060079270994058</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-15.70590739214985</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-32.65175865420169</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-0.57287091107621</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-15.84567636768301</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-32.79764663848715</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-0.6238911141982943</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-15.95232792730142</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-32.84592321701507</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-0.6407744843716319</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-15.98762056924353</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-32.76788700557499</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-0.6134835228983416</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-15.9305721173264</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-32.56053468116316</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-0.5409679023615076</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-15.77898698920677</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-32.24275177043383</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-0.4298323024452552</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-15.54667146839565</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-31.84723886125015</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-0.291512830401053</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-15.25753135298273</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-31.41332825946846</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-0.1397648495912721</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-14.94032056525651</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-30.97807632073935</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.01245222594106649</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-14.62212919178761</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-30.57313651398295</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.1540684892277199</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-14.32609753329514</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-30.22408839581664</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.2761382126216658</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-14.07092555071795</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-29.94644062028306</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.3732376822832686</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-13.86795086140222</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-29.74378735971154</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.4441099379275718</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-13.71980098869291</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-29.61737472386587</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.4883191878506116</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-13.62738690240301</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-29.57385561163007</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.503538768522991</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-13.59557221104313</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-29.61614396519683</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.4887496109426579</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-13.62648715502347</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-29.73334882639834</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.447760520205094</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-13.71216988827409</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-29.90283599908366</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.3884871673011825</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-13.83607365862734</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-30.10290776826252</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.3185177153788985</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-13.98233632942269</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-30.31386609853159</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.244740996114867</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-14.13655763179992</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-30.51357402388965</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.1748987882951956</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-14.2825543141992</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-30.67838025096358</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.1172624639448402</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-14.40303607449187</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-30.7883373367004</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.07880807802346165</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-14.48342031410122</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-30.82706847835076</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.06526295486729584</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-14.51173475468413</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-30.7819189161856</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.08105273936409284</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-14.47872812124145</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-30.64889501001907</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.1275740944020065</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-14.38148085904449</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-30.4341667875016</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.2026692270309473</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-14.22450357309633</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-30.14681124476538</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.303163714157259</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-14.01443201067179</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-29.79314713107714</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.4268477516449455</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-13.75588549986313</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-29.37742252112245</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.5722356953239456</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-13.45196959999938</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-28.90469313830889</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.7375594486889394</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-13.10638030283104</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-28.38174859847503</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.9204445353161007</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-12.72408116393771</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-27.81409076816219</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1.118966832736652</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-12.30909432846257</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-27.20818109580184</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1.330866631811068</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-11.86614344486774</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-26.57439722888754</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1.552514643358036</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-11.40281510293152</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-25.9296249478605</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1.778005542465398</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-10.93145366965747</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-25.29361309632056</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>2.000432728724458</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-10.46649655728964</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-24.68190327418421</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>2.214360966406475</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-10.01930546828886</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-24.1004142883967</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>2.417720319909384</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-9.594207352505592</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-23.54721711670322</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>2.611185410297753</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-9.189791996254179</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-23.01943741229214</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>2.795761459207154</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-8.803958105368091</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-22.51585291432235</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>2.971875917854262</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-8.435812144813562</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-22.04406333894621</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>3.13687100010499</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-8.090909894830325</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-21.61188990128773</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>3.288011456814302</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-7.774969062707092</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-21.22243050635498</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>3.424213883179945</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-7.490254375057791</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-20.87310439230924</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>3.54638082778306</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-7.234879163309587</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-20.56254245637948</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>3.654991095658999</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-7.00784254348616</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-20.29551479886637</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>3.748376478919041</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-6.812631702274598</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-20.07961754527813</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>3.823880447155513</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-6.654799794970541</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-19.92875397723177</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>3.876640720204366</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-6.54451082977201</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-19.85714377968382</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>3.901684364767719</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-6.492160121860877</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-19.87385499507986</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>3.895840089050986</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-6.504376872910225</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-19.9792039748258</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>3.858997258082634</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-6.581392351937815</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-20.17075497225384</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>3.792007705482515</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-6.721425903859329</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-20.44235778375759</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>3.697022291301072</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-6.919981416059298</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-20.78475276749026</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>3.577279313813347</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-7.170289617927094</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-21.18634528965681</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>3.436833668796031</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-7.463874240608209</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-21.63179082942446</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>3.281051669133177</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-7.789517656506862</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-22.10471654903126</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>3.115659252518633</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-8.135250485888024</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-22.59143202423925</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>2.94544425825849</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-8.491064330157604</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-23.0850536580222</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>2.772814030043245</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-8.851926928692995</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-23.57650093710838</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>2.600944220986791</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-9.211199963010955</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-24.05816154824612</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>2.432497022703007</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-9.563318443749454</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-24.52376282243456</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>2.269666124056045</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-9.903696729841567</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-24.96828724604166</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>2.114206258761148</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-10.22866676283214</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-25.38732408894774</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>1.967659955133619</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-10.53500407397123</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-25.7769055960619</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>1.831414823480561</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-10.81980803185522</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-26.1356487156293</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>1.705954547100531</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-11.08206755508898</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-26.46209193544261</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>1.591790248619906</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-11.32071420368358</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-26.75545783950082</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>1.489193807333444</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-11.53517964687904</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-27.00855154335462</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1.400681430918161</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-11.72020405706482</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-27.21142094435461</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1.32973358626207</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-11.86851193945468</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-27.3522712312397</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>1.280475175558279</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-11.97148068525353</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-27.42532819626262</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>1.254925564922363</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-12.02488905400196</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-27.42784547523685</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>1.254045217680544</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-12.02672931336198</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-27.37106164274786</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>1.273903759710775</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-11.98521743474002</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-32.66268494192573</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>-0.5766920716863917</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-15.85366404146104</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-32.51945364576611</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>-0.5266009702204622</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-15.74895465640504</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-32.30282016980824</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>-0.4508395289986342</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-15.59058453298722</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-31.9976133315212</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>-0.3441020553134499</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-15.36746276275407</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-31.59093997305447</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>-0.2018795312657271</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-15.07016378951671</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-31.09399493516149</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>-0.02808703630465638</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-14.70687161301907</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-30.53138074583391</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.168671390096609</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-14.2955719364273</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-29.94046593390842</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.3753271601379229</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-13.86358306083792</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-29.36834911674168</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.5754088623039638</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-13.44533647847811</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-28.86602158528409</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.7510837324058972</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-13.07810942457358</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-28.47973483053012</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.8861766174536132</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-12.7957140987609</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-28.23592228186531</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.9714431719098823</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-12.6174746865365</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-28.14850680609483</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1.002014266244124</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-12.55356951387016</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-28.19549285322103</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.9855822229883102</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-12.58791871151558</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-28.32212792649378</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.9412951818560297</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-12.68049541091328</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-28.45391173365971</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.8952075164273871</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-12.77683609747179</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-28.51567808997849</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.8736064773772552</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-12.82199045521831</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-28.44771277694753</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.8973754264999648</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-12.77230434384863</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-28.21388229102591</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.9791510363713888</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-12.60136232876756</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-27.81442698518646</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1.118849250326042</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-12.30934012026088</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-27.27152819518174</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1.308712772510132</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-11.91245340644037</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-26.62687436421774</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1.534162247052574</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-11.44117856620565</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-25.9330792888517</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>1.776797484242595</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-10.93397896916017</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-25.24385165078654</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>2.017835389205573</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-10.43011840180917</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-24.60306596241677</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>2.241932090098907</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-9.961671371160831</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-24.0417869500025</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>2.43822357607561</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-9.551347777012499</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-23.57884203748477</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>2.600125487234883</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-9.212911426827441</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-23.21604379869666</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>2.727003927059543</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-8.947687404553923</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-22.94280588594133</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>2.822561171734016</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-8.74793654991729</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-22.74034988767376</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>2.893364440457536</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-8.599930886016345</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-22.58741282247084</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>2.946849860588368</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-8.488126088607958</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-22.46179693106183</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>2.990780471642044</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-8.396294463150619</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-22.34772686988513</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>3.030673254587049</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-8.312903428653502</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-22.23098057096389</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>3.071501976115328</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-8.227555927825305</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-22.10150847997758</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>3.116781184085172</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-8.13290522373628</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-21.95474654893091</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>3.168107025409695</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-8.025614764447257</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-21.7907310822514</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>3.225466803640495</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-7.905711090346963</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-21.61270382034235</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>3.287726811607259</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-7.775564079061621</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-21.42296762217473</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>3.354081689409822</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-7.636857237989296</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-21.22766833058663</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>3.422382102053312</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-7.49408349180136</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-21.02892867554592</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>3.491885684670161</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-7.348794664404557</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-20.82883424843019</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>3.561863060566081</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-7.202515429501365</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-20.62869723387569</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>3.631855330216187</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-7.056205061007648</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-20.42884037699326</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>3.701749622631187</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-6.910099502065672</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-20.2283572233439</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>3.771862944655923</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-6.763536088233839</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-20.02623803850775</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>3.842548422392272</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-6.615776652135256</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-19.8271894545179</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>3.912160044185975</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-6.470261981915295</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-19.63632685130663</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>3.9789088503467</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-6.330731681287637</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-19.46301834777967</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>4.039518605811058</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-6.204034323127441</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-19.32078723849395</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>4.089259920159726</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-6.100056125705116</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-19.22249950394576</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>4.123633280005772</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-6.028202777177012</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-19.17580730987134</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>4.139962556454141</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-5.994068401104625</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-19.18724133375117</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>4.135963829460215</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-6.002427255916905</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-19.26273432627564</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>4.109562286990784</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-6.057616485053428</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-19.40389314793673</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>4.060195974961062</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-6.16081078551477</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-19.60862143566999</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>3.988598037158665</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-6.310477608945792</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-19.87038306192378</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>3.897054299636709</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-6.501838712637466</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-20.17974387712442</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>3.788864089820209</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-6.727997251927535</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-20.52375300560034</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>3.668556610786503</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-6.979485475955214</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-20.8949139133776</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>3.538753563616289</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-7.250823035917488</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-21.28718485195499</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>3.401567879249384</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-7.537593105414072</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-21.6940574635617</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>3.259275672042186</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-7.835037742862515</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-22.1078491891025</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>3.114563700108846</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-8.137540605605265</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-22.52048300620639</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>2.970256673955905</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-8.439196978204938</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-22.92466906234909</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>2.828904013663034</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-8.734677606542952</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-23.3127566374952</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>2.693181342532228</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-9.018389423938915</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-23.68784237798735</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>2.562005695943941</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-9.292596236858071</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-24.05041140021935</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>2.435207418137484</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-9.557652690134598</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-24.3966033049352</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>2.314136574748057</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-9.810736634957429</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-24.71854485117181</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>2.201546609488892</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-10.04609233049513</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-25.0065742323215</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>2.100816466404377</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-10.25665650317871</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-25.25197813955263</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>2.014993379224107</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-10.43605927970511</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-25.4483188280931</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>1.94632876740204</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-10.5795943401966</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-25.59351105885154</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>1.895551884430313</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-10.68573726848989</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-25.68046077678486</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>1.865143675748193</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-10.74930194841462</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-25.70222734936664</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>1.857531431601883</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-10.76521442348763</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-25.65602024673873</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>1.873691061014173</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-10.73143467401168</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-25.54328841842245</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>1.913115834803399</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-10.64902195601126</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-25.36529742678423</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>1.975363158267092</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-10.51890146014438</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-25.12859296423121</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>2.058143860314004</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-10.34585842151742</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-24.84479638680455</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>2.157393699816401</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-10.13838864431016</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-24.52779683803459</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>2.268255341006848</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-9.906645801057923</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-24.19510093020782</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>2.384606340565488</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-9.66342811851759</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-23.86445439620392</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>2.50024062949694</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-9.421708632799442</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-23.55044132712898</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>2.610057833742111</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-9.192149058572427</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-23.2588765065575</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>2.712024396935576</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-8.979000299295821</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-22.9980661105917</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>2.803235468523825</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-8.788334593475788</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-22.77121211483224</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>2.88257124795345</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-8.622492748639042</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-22.580486605372</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>2.949272109445815</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-8.483062670537816</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-22.43132673231429</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>3.001436563278953</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-8.37401919329735</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-22.33286007938482</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>3.035872494776803</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-8.302035046304237</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-22.29539362318379</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>3.048975329907494</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-8.274645155308169</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-22.32562556973882</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>3.03840256024748</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-8.296746250653253</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-22.43187395474693</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>3.001245187684843</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-8.374419240814525</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-22.61551379109786</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>2.937022340287091</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-8.508669330366617</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-22.86601012627482</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>2.849418320225651</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-8.691794931533641</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-23.17848769538685</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>2.740138113735202</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-8.920231976947596</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-23.52311545664883</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>2.619614285352661</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-9.172172453104112</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-23.88927677174389</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>2.49155970455151</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-9.43985505573988</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-24.21765096185802</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>2.376720103732224</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-9.679913342141166</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-24.53091547251944</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>2.267164686655434</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-9.908925681976951</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>